--- a/RNN_Stopping_Grid/Data2/Optimised_Networks/Predictions/1HL Manual/1_15_30_0.0009_8_manual_offline 10 maybe this.xlsx
+++ b/RNN_Stopping_Grid/Data2/Optimised_Networks/Predictions/1HL Manual/1_15_30_0.0009_8_manual_offline 10 maybe this.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\RNN_Stopping_Grid\Data2\Optimised_Networks\Predictions\1HL Manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B93C209-D2CB-4BD5-A51B-911AAC40B3E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B034F08-091F-4024-8CE3-7892EA9B0BFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7328,16 +7328,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>111425</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>19448</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>92374</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>121886</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7364,16 +7364,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>139699</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>30163</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>373331</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38591</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>178220</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>8427</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7917,8 +7917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="AE41" sqref="AE41"/>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="Z44" sqref="Z44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8959,19 +8959,19 @@
     </row>
     <row r="31" spans="1:26">
       <c r="S31">
-        <f t="shared" ref="S31:S41" si="1">ABS((J3-B3)/J3)</f>
+        <f>ABS((J3-B3)/J3)</f>
         <v>0.21062651654911466</v>
       </c>
       <c r="T31">
-        <f t="shared" ref="T31:T38" si="2">ABS((K3-C3)/K3)</f>
+        <f t="shared" ref="T31:T38" si="1">ABS((K3-C3)/K3)</f>
         <v>1.5000249873862436E-2</v>
       </c>
       <c r="U31">
-        <f t="shared" ref="U31:U42" si="3">ABS((L3-D3)/L3)</f>
+        <f t="shared" ref="U31:U42" si="2">ABS((L3-D3)/L3)</f>
         <v>0.16381439316175675</v>
       </c>
       <c r="X31">
-        <f t="shared" ref="X31:X42" si="4">ABS((J16-B16)/J16)</f>
+        <f t="shared" ref="X31:X42" si="3">ABS((J16-B16)/J16)</f>
         <v>3.0899004662664077E-2</v>
       </c>
       <c r="Y31">
@@ -8985,19 +8985,19 @@
     </row>
     <row r="32" spans="1:26">
       <c r="S32">
+        <f t="shared" ref="S31:S41" si="4">ABS((J4-B4)/J4)</f>
+        <v>0.10507300946303423</v>
+      </c>
+      <c r="T32">
         <f t="shared" si="1"/>
-        <v>0.10507300946303423</v>
-      </c>
-      <c r="T32">
+        <v>3.5307579699082138E-2</v>
+      </c>
+      <c r="U32">
         <f t="shared" si="2"/>
-        <v>3.5307579699082138E-2</v>
-      </c>
-      <c r="U32">
+        <v>9.6878098893255632E-2</v>
+      </c>
+      <c r="X32">
         <f t="shared" si="3"/>
-        <v>9.6878098893255632E-2</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="4"/>
         <v>0.12703979169245919</v>
       </c>
       <c r="Y32">
@@ -9011,19 +9011,19 @@
     </row>
     <row r="33" spans="18:26">
       <c r="S33">
+        <f t="shared" si="4"/>
+        <v>8.5066148150910223E-2</v>
+      </c>
+      <c r="T33">
         <f t="shared" si="1"/>
-        <v>8.5066148150910223E-2</v>
-      </c>
-      <c r="T33">
+        <v>0.10524707956260834</v>
+      </c>
+      <c r="U33">
         <f t="shared" si="2"/>
-        <v>0.10524707956260834</v>
-      </c>
-      <c r="U33">
+        <v>8.910791389958958E-2</v>
+      </c>
+      <c r="X33">
         <f t="shared" si="3"/>
-        <v>8.910791389958958E-2</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="4"/>
         <v>7.0052442270223406E-2</v>
       </c>
       <c r="Y33">
@@ -9037,19 +9037,19 @@
     </row>
     <row r="34" spans="18:26">
       <c r="S34">
+        <f t="shared" si="4"/>
+        <v>5.3084708889134649E-2</v>
+      </c>
+      <c r="T34">
         <f t="shared" si="1"/>
-        <v>5.3084708889134649E-2</v>
-      </c>
-      <c r="T34">
+        <v>0.10266719952026469</v>
+      </c>
+      <c r="U34">
         <f t="shared" si="2"/>
-        <v>0.10266719952026469</v>
-      </c>
-      <c r="U34">
+        <v>6.8382222437563048E-2</v>
+      </c>
+      <c r="X34">
         <f t="shared" si="3"/>
-        <v>6.8382222437563048E-2</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="4"/>
         <v>4.6679960324036172E-2</v>
       </c>
       <c r="Y34">
@@ -9063,7 +9063,7 @@
     </row>
     <row r="35" spans="18:26">
       <c r="S35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.7433671131177931E-2</v>
       </c>
       <c r="T35">
@@ -9071,11 +9071,11 @@
         <v>0.19389598444144249</v>
       </c>
       <c r="U35">
+        <f t="shared" si="2"/>
+        <v>7.3883474947455799E-2</v>
+      </c>
+      <c r="X35">
         <f t="shared" si="3"/>
-        <v>7.3883474947455799E-2</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="4"/>
         <v>0.11012462929778756</v>
       </c>
       <c r="Y35">
@@ -9089,19 +9089,19 @@
     </row>
     <row r="36" spans="18:26">
       <c r="S36">
+        <f t="shared" si="4"/>
+        <v>1.9695404160764559E-3</v>
+      </c>
+      <c r="T36">
         <f t="shared" si="1"/>
-        <v>1.9695404160764559E-3</v>
-      </c>
-      <c r="T36">
+        <v>3.1306365693472227E-2</v>
+      </c>
+      <c r="U36">
         <f t="shared" si="2"/>
-        <v>3.1306365693472227E-2</v>
-      </c>
-      <c r="U36">
+        <v>4.6473653720824674E-2</v>
+      </c>
+      <c r="X36">
         <f t="shared" si="3"/>
-        <v>4.6473653720824674E-2</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="4"/>
         <v>7.1888610310064702E-2</v>
       </c>
       <c r="Y36">
@@ -9115,19 +9115,19 @@
     </row>
     <row r="37" spans="18:26">
       <c r="S37">
+        <f t="shared" si="4"/>
+        <v>2.618939619555968E-3</v>
+      </c>
+      <c r="T37">
         <f t="shared" si="1"/>
-        <v>2.618939619555968E-3</v>
-      </c>
-      <c r="T37">
+        <v>4.7118701059067477E-3</v>
+      </c>
+      <c r="U37">
         <f t="shared" si="2"/>
-        <v>4.7118701059067477E-3</v>
-      </c>
-      <c r="U37">
+        <v>3.0441463513266726E-2</v>
+      </c>
+      <c r="X37">
         <f t="shared" si="3"/>
-        <v>3.0441463513266726E-2</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="4"/>
         <v>4.0492383074441606E-2</v>
       </c>
       <c r="Y37">
@@ -9141,19 +9141,19 @@
     </row>
     <row r="38" spans="18:26">
       <c r="S38">
+        <f t="shared" si="4"/>
+        <v>4.3829829452584151E-2</v>
+      </c>
+      <c r="T38">
         <f t="shared" si="1"/>
-        <v>4.3829829452584151E-2</v>
-      </c>
-      <c r="T38">
+        <v>1.4266533939955204E-3</v>
+      </c>
+      <c r="U38">
         <f t="shared" si="2"/>
-        <v>1.4266533939955204E-3</v>
-      </c>
-      <c r="U38">
+        <v>2.0062866031575598E-3</v>
+      </c>
+      <c r="X38">
         <f t="shared" si="3"/>
-        <v>2.0062866031575598E-3</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="4"/>
         <v>6.4997776968992838E-2</v>
       </c>
       <c r="Y38">
@@ -9167,7 +9167,7 @@
     </row>
     <row r="39" spans="18:26">
       <c r="S39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4932364751107048E-2</v>
       </c>
       <c r="T39">
@@ -9175,11 +9175,11 @@
         <v>2.1889868120452786E-2</v>
       </c>
       <c r="U39">
+        <f t="shared" si="2"/>
+        <v>2.6029276339025586E-2</v>
+      </c>
+      <c r="X39">
         <f t="shared" si="3"/>
-        <v>2.6029276339025586E-2</v>
-      </c>
-      <c r="X39">
-        <f t="shared" si="4"/>
         <v>8.1147105438858197E-2</v>
       </c>
       <c r="Y39">
@@ -9193,7 +9193,7 @@
     </row>
     <row r="40" spans="18:26">
       <c r="S40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.1788928761124075E-3</v>
       </c>
       <c r="T40">
@@ -9201,11 +9201,11 @@
         <v>8.2240443291692999E-2</v>
       </c>
       <c r="U40">
+        <f t="shared" si="2"/>
+        <v>1.4867539133122954E-2</v>
+      </c>
+      <c r="X40">
         <f t="shared" si="3"/>
-        <v>1.4867539133122954E-2</v>
-      </c>
-      <c r="X40">
-        <f t="shared" si="4"/>
         <v>8.2720318531611825E-2</v>
       </c>
       <c r="Y40">
@@ -9219,7 +9219,7 @@
     </row>
     <row r="41" spans="18:26">
       <c r="S41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.607979068966757E-2</v>
       </c>
       <c r="T41">
@@ -9227,11 +9227,11 @@
         <v>6.4714829839086774E-2</v>
       </c>
       <c r="U41">
+        <f t="shared" si="2"/>
+        <v>2.2334263994558665E-2</v>
+      </c>
+      <c r="X41">
         <f t="shared" si="3"/>
-        <v>2.2334263994558665E-2</v>
-      </c>
-      <c r="X41">
-        <f t="shared" si="4"/>
         <v>9.3485092327265595E-2</v>
       </c>
       <c r="Y41">
@@ -9253,11 +9253,11 @@
         <v>8.8972540886849083E-2</v>
       </c>
       <c r="U42">
+        <f t="shared" si="2"/>
+        <v>3.7102564992381563E-2</v>
+      </c>
+      <c r="X42">
         <f t="shared" si="3"/>
-        <v>3.7102564992381563E-2</v>
-      </c>
-      <c r="X42">
-        <f t="shared" si="4"/>
         <v>9.3286824075080418E-2</v>
       </c>
       <c r="Y42">
@@ -9274,28 +9274,28 @@
         <v>5</v>
       </c>
       <c r="S43">
-        <f>( SUM(S31:S41)/12)*100</f>
-        <v>4.649111766570627</v>
+        <f>( SUM(S31:S42)/12)*100</f>
+        <v>4.6750874018436592</v>
       </c>
       <c r="T43">
-        <f>( SUM(T31:T41)/12)*100</f>
-        <v>5.4867343628488916</v>
+        <f>( SUM(T31:T42)/12)*100</f>
+        <v>6.228172203572635</v>
       </c>
       <c r="U43">
-        <f>( SUM(U31:U41)/12)*100</f>
-        <v>5.285154888696475</v>
+        <f>( SUM(U31:U42)/12)*100</f>
+        <v>5.5943429302996543</v>
       </c>
       <c r="X43">
-        <f t="shared" ref="X43:Z43" si="6">( SUM(X31:X41)/12)*100</f>
-        <v>6.8293926241533756</v>
+        <f>( SUM(X31:X42)/12)*100</f>
+        <v>7.6067828247790459</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="6"/>
-        <v>9.4012931114781129</v>
+        <f>( SUM(Y31:Y42)/12)*100</f>
+        <v>10.948878685858867</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="6"/>
-        <v>11.258673997103593</v>
+        <f>( SUM(Z31:Z42)/12)*100</f>
+        <v>11.36236343615986</v>
       </c>
     </row>
   </sheetData>
